--- a/QA/Estimation/estimation.xlsx
+++ b/QA/Estimation/estimation.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A101F-4F8D-46DC-9A3D-86A9F154B717}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A36C8-1709-4F88-83F0-5FEC319D4C73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimation" sheetId="1" r:id="rId1"/>
+    <sheet name="Test activity" sheetId="2" r:id="rId2"/>
+    <sheet name="Metrics" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -116,13 +118,170 @@
   </si>
   <si>
     <t>9.9.2014</t>
+  </si>
+  <si>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>7 years</t>
+  </si>
+  <si>
+    <t>1.5 year</t>
+  </si>
+  <si>
+    <t>3.5 year</t>
+  </si>
+  <si>
+    <t>34 months</t>
+  </si>
+  <si>
+    <t>18 months</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>4 months</t>
+  </si>
+  <si>
+    <t>5 months</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>5 hour</t>
+  </si>
+  <si>
+    <t>25 days</t>
+  </si>
+  <si>
+    <t>9.11.2012</t>
+  </si>
+  <si>
+    <t>9.1.2013</t>
+  </si>
+  <si>
+    <t>9.3.2018</t>
+  </si>
+  <si>
+    <t>9.3.2013</t>
+  </si>
+  <si>
+    <t>9.5.2017</t>
+  </si>
+  <si>
+    <t>9.9.2019</t>
+  </si>
+  <si>
+    <t>9.8.2019</t>
+  </si>
+  <si>
+    <t>9.5.2019</t>
+  </si>
+  <si>
+    <t>Expert review</t>
+  </si>
+  <si>
+    <t>3 Points methog</t>
+  </si>
+  <si>
+    <t>1optimistic + 1 pessimistic + 4 real/6
+6+ 12+ 4*7/6 = 7.5</t>
+  </si>
+  <si>
+    <t>Test activity</t>
+  </si>
+  <si>
+    <t>Evaluating exit criteria &amp; Reporting</t>
+  </si>
+  <si>
+    <t>Test closure activities</t>
+  </si>
+  <si>
+    <t>Test execution</t>
+  </si>
+  <si>
+    <t>Tets implementation</t>
+  </si>
+  <si>
+    <t>Tets analysis &amp; Test design</t>
+  </si>
+  <si>
+    <t>Test planning</t>
+  </si>
+  <si>
+    <t>Вам нужно оценить, сколько времени понадобиться для запуска Tesla в космос. Примените известные вам техники эстимации для расчетов.</t>
+  </si>
+  <si>
+    <t>Давайте предположим, что Вам нужно запланировать активности по тестированию на целый проект. Выпишите список того, что вы планируете делать и в какой последовательности.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>New functional</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Decline</t>
+  </si>
+  <si>
+    <t>Reopened</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Rate = (Reopened / (Reopened + Closed))* 100%</t>
+  </si>
+  <si>
+    <t>Rate = (Decline/Closed)*100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +328,56 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +399,18 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,20 +448,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -263,13 +512,70 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Calculation" xfId="7" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Output" xfId="6" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,13 +597,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>627338</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>94357</xdr:rowOff>
+      <xdr:rowOff>122932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,7 +626,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="6134100"/>
+          <a:off x="419100" y="6515100"/>
           <a:ext cx="10495238" cy="7142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -328,6 +634,1152 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26197E4B-0513-4D04-BED0-E0A610D0E7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="209550"/>
+          <a:ext cx="8534400" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F3C9C1-F14B-4EB2-9C02-27891A6FA0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="409575"/>
+          <a:ext cx="619125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC320A2-FAAA-484F-845E-59788EA5B16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419726" y="600075"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC030D17-1818-4112-BC93-9F585C33A45E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="790574"/>
+          <a:ext cx="209550" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0094FEF7-99A7-44BD-BAAA-E83BC910DD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="1190625"/>
+          <a:ext cx="228600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF15DDB-CBCE-44FF-84DB-6EA17E502601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="1381125"/>
+          <a:ext cx="7353300" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0C386B-374A-4EB8-A43F-26009535CF67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="1562100"/>
+          <a:ext cx="1809750" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF101BEA-7703-466F-8C8B-2B810E5658F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848599" y="1752600"/>
+          <a:ext cx="4381501" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C416AC6-29D1-46DC-B155-C5D1F04C76A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="1952625"/>
+          <a:ext cx="4276726" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC172802-C65F-4266-8C8E-C56CAD281FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="2143126"/>
+          <a:ext cx="3495675" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F812F7-DF07-41BD-934B-07B543E5DD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="2324100"/>
+          <a:ext cx="1809750" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF5CE90-151E-45F0-8AE5-C699DC551948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="2514600"/>
+          <a:ext cx="1219200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FD84C9-A1A9-4FCB-A2F9-7B22B58CB43D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="2705100"/>
+          <a:ext cx="838200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1219199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF13754-A361-4DAF-B47C-AEBB9B189875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134724" y="2895600"/>
+          <a:ext cx="371475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2026C03-5DCA-42B9-A562-F2811D20203D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="3095625"/>
+          <a:ext cx="257175" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>664844</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7D2DD4-4C67-4AD6-9EBD-E3C1FA005C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="3295650"/>
+          <a:ext cx="45719" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF62947-9ECF-4E72-8AE3-356875CEB5FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325475" y="3476625"/>
+          <a:ext cx="466725" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C686E1F-72E5-4DC0-90DD-F78192BB03E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13792200" y="3667125"/>
+          <a:ext cx="104775" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2F212B-3275-434D-B488-18D18A34776B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="3857625"/>
+          <a:ext cx="45719" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -596,18 +2048,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
@@ -617,215 +2069,786 @@
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K4" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1.2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>1.3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2.1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>3.1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>3.2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>3.3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>3.4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="C20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>3.5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="C22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B674338F-463E-4E82-8989-E173AAFAAA90}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="25"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC699A8F-297B-4801-8696-C0D1595F5442}">
+  <dimension ref="A3:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="27">
+        <f>C7+D7+E7+F7+G7</f>
+        <v>76</v>
+      </c>
+      <c r="C7" s="27">
+        <v>5</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>43</v>
+      </c>
+      <c r="F7" s="27">
+        <v>6</v>
+      </c>
+      <c r="G7" s="27">
+        <v>21</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="27">
+        <f>C8+D8+E8+F8+G8</f>
+        <v>94</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>5</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27">
+        <v>87</v>
+      </c>
+      <c r="H8" s="27">
+        <f>(B8/B7)*100%</f>
+        <v>1.236842105263158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="27">
+        <f>C9+D9+E9+F9+G9</f>
+        <v>45</v>
+      </c>
+      <c r="C9" s="27">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27">
+        <v>8</v>
+      </c>
+      <c r="E9" s="27">
+        <v>22</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3</v>
+      </c>
+      <c r="G9" s="27">
+        <v>9</v>
+      </c>
+      <c r="H9" s="27">
+        <f>(B9/(B9+B7))*100%</f>
+        <v>0.37190082644628097</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="27">
+        <f>C17+D17+E17+F17+G17</f>
+        <v>920</v>
+      </c>
+      <c r="C17" s="27">
+        <v>52</v>
+      </c>
+      <c r="D17" s="27">
+        <v>154</v>
+      </c>
+      <c r="E17" s="27">
+        <v>434</v>
+      </c>
+      <c r="F17" s="27">
+        <v>65</v>
+      </c>
+      <c r="G17" s="27">
+        <v>215</v>
+      </c>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="27">
+        <f>C18+D18+E18+F18+G18</f>
+        <v>170</v>
+      </c>
+      <c r="C18" s="27">
+        <v>15</v>
+      </c>
+      <c r="D18" s="27">
+        <v>12</v>
+      </c>
+      <c r="E18" s="27">
+        <v>55</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <v>87</v>
+      </c>
+      <c r="H18" s="27">
+        <f>(B18/B17)*100%</f>
+        <v>0.18478260869565216</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="27">
+        <f>C19+D19+E19+F19+G19</f>
+        <v>25</v>
+      </c>
+      <c r="C19" s="27">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2</v>
+      </c>
+      <c r="F19" s="27">
+        <v>3</v>
+      </c>
+      <c r="G19" s="27">
+        <v>9</v>
+      </c>
+      <c r="H19" s="27">
+        <f>(B19/B18)*100%</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QA/Estimation/estimation.xlsx
+++ b/QA/Estimation/estimation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A36C8-1709-4F88-83F0-5FEC319D4C73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F624DB38-AA9F-4D2D-BFE9-A8782CE9212D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2551,7 +2551,7 @@
   <dimension ref="A3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
